--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -540,10 +540,10 @@
         <v>1.396717</v>
       </c>
       <c r="I2">
-        <v>0.5605021543775982</v>
+        <v>0.2893336272138922</v>
       </c>
       <c r="J2">
-        <v>0.5605021543775982</v>
+        <v>0.2893336272138922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N2">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q2">
-        <v>1.188736216871778</v>
+        <v>0.2825241901813333</v>
       </c>
       <c r="R2">
-        <v>10.698625951846</v>
+        <v>2.542717711632</v>
       </c>
       <c r="S2">
-        <v>0.09220506522701363</v>
+        <v>0.009814991782187003</v>
       </c>
       <c r="T2">
-        <v>0.09220506522701363</v>
+        <v>0.009814991782187001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.396717</v>
       </c>
       <c r="I3">
-        <v>0.5605021543775982</v>
+        <v>0.2893336272138922</v>
       </c>
       <c r="J3">
-        <v>0.5605021543775982</v>
+        <v>0.2893336272138922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P3">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q3">
         <v>3.751890070884667</v>
@@ -632,10 +632,10 @@
         <v>33.76701063796201</v>
       </c>
       <c r="S3">
-        <v>0.2910176907210528</v>
+        <v>0.1303420078463606</v>
       </c>
       <c r="T3">
-        <v>0.2910176907210529</v>
+        <v>0.1303420078463606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.396717</v>
       </c>
       <c r="I4">
-        <v>0.5605021543775982</v>
+        <v>0.2893336272138922</v>
       </c>
       <c r="J4">
-        <v>0.5605021543775982</v>
+        <v>0.2893336272138922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N4">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O4">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P4">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q4">
-        <v>2.285540831185111</v>
+        <v>4.294043931755668</v>
       </c>
       <c r="R4">
-        <v>20.569867480666</v>
+        <v>38.64639538580101</v>
       </c>
       <c r="S4">
-        <v>0.1772793984295317</v>
+        <v>0.1491766275853446</v>
       </c>
       <c r="T4">
-        <v>0.1772793984295317</v>
+        <v>0.1491766275853446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.365062</v>
+        <v>1.143547</v>
       </c>
       <c r="H5">
-        <v>1.095186</v>
+        <v>3.430641</v>
       </c>
       <c r="I5">
-        <v>0.4394978456224017</v>
+        <v>0.7106663727861078</v>
       </c>
       <c r="J5">
-        <v>0.4394978456224018</v>
+        <v>0.7106663727861078</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N5">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q5">
-        <v>0.9321052599853334</v>
+        <v>0.6939409131039999</v>
       </c>
       <c r="R5">
-        <v>8.388947339868</v>
+        <v>6.245468217935999</v>
       </c>
       <c r="S5">
-        <v>0.07229932517876715</v>
+        <v>0.02410775641925586</v>
       </c>
       <c r="T5">
-        <v>0.07229932517876717</v>
+        <v>0.02410775641925586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.365062</v>
+        <v>1.143547</v>
       </c>
       <c r="H6">
-        <v>1.095186</v>
+        <v>3.430641</v>
       </c>
       <c r="I6">
-        <v>0.4394978456224017</v>
+        <v>0.7106663727861078</v>
       </c>
       <c r="J6">
-        <v>0.4394978456224018</v>
+        <v>0.7106663727861078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P6">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q6">
-        <v>2.941911267044</v>
+        <v>9.215458754114</v>
       </c>
       <c r="R6">
-        <v>26.477201403396</v>
+        <v>82.93912878702599</v>
       </c>
       <c r="S6">
-        <v>0.2281911801961506</v>
+        <v>0.3201483451121782</v>
       </c>
       <c r="T6">
-        <v>0.2281911801961507</v>
+        <v>0.3201483451121782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.365062</v>
+        <v>1.143547</v>
       </c>
       <c r="H7">
-        <v>1.095186</v>
+        <v>3.430641</v>
       </c>
       <c r="I7">
-        <v>0.4394978456224017</v>
+        <v>0.7106663727861078</v>
       </c>
       <c r="J7">
-        <v>0.4394978456224018</v>
+        <v>0.7106663727861078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N7">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O7">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P7">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q7">
-        <v>1.792125620825333</v>
+        <v>10.547106656597</v>
       </c>
       <c r="R7">
-        <v>16.129130587428</v>
+        <v>94.923959909373</v>
       </c>
       <c r="S7">
-        <v>0.1390073402474839</v>
+        <v>0.3664102712546737</v>
       </c>
       <c r="T7">
-        <v>0.139007340247484</v>
+        <v>0.3664102712546737</v>
       </c>
     </row>
   </sheetData>
